--- a/data/verv.xlsx
+++ b/data/verv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
   <si>
     <t xml:space="preserve"> Synøve Nygaard Andersen</t>
   </si>
@@ -1843,6 +1843,36 @@
   </si>
   <si>
     <t xml:space="preserve">Hakke P. Eiling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aas Pedersen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksander Madsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatrice Johannessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Jordhus-Lier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eilert Sundt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harriet Holter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jemima Garcia-Godos Naveda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magne Paalgard Flemmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marieke Elisabeth van der Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peder Aas</t>
   </si>
 </sst>
 </file>
@@ -3824,7 +3854,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>608</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="n">
@@ -3842,7 +3872,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="n">
@@ -3858,7 +3888,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="n">
@@ -3876,7 +3906,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="n">
@@ -3894,7 +3924,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="n">
@@ -3912,7 +3942,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>609</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="n">
@@ -3928,7 +3958,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="n">
@@ -3946,7 +3976,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="n">
@@ -3964,7 +3994,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="n">
@@ -3982,7 +4012,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="n">
@@ -3998,7 +4028,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="n">
@@ -4014,7 +4044,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="n">
@@ -4032,7 +4062,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="n">
@@ -4048,7 +4078,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="n">
@@ -4066,7 +4096,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="n">
@@ -4082,7 +4112,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="n">
@@ -4100,7 +4130,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="n">
@@ -4266,7 +4296,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>610</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="n">
@@ -4440,7 +4470,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>611</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="n">
@@ -4490,7 +4520,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>455</v>
+        <v>612</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="n">
@@ -4508,7 +4538,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="n">
@@ -4524,7 +4554,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="n">
@@ -4540,7 +4570,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="n">
@@ -4558,7 +4588,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="n">
@@ -4928,7 +4958,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>479</v>
+        <v>613</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="n">
@@ -4946,7 +4976,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="n">
@@ -4962,7 +4992,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="n">
@@ -4978,7 +5008,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="n">
@@ -4996,7 +5026,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="n">
@@ -5012,7 +5042,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="n">
@@ -5028,7 +5058,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B74" s="2"/>
       <c r="D74" s="2"/>
@@ -5041,7 +5071,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2"/>
       <c r="D75" s="2"/>
@@ -5054,7 +5084,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B76" s="2"/>
       <c r="D76" s="2"/>
@@ -5067,7 +5097,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B77" s="2"/>
       <c r="D77" s="2"/>
@@ -5080,7 +5110,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="D78" s="2"/>
@@ -5093,7 +5123,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s">
@@ -5111,7 +5141,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s">
@@ -5129,7 +5159,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s">
@@ -5147,7 +5177,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s">
@@ -5165,7 +5195,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s">
@@ -5183,7 +5213,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>495</v>
+        <v>614</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s">
@@ -5201,7 +5231,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s">
@@ -5219,7 +5249,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s">
@@ -5237,7 +5267,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s">
@@ -5255,7 +5285,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s">
@@ -5273,7 +5303,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s">
@@ -5291,7 +5321,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s">
@@ -5309,7 +5339,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s">
@@ -5327,7 +5357,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s">
@@ -5345,7 +5375,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s">
@@ -5363,7 +5393,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s">
@@ -5381,7 +5411,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s">
@@ -5399,7 +5429,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s">
@@ -5417,7 +5447,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s">
@@ -5435,7 +5465,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s">
@@ -5453,7 +5483,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s">
@@ -5471,7 +5501,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s">
@@ -5489,7 +5519,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s">
@@ -5507,7 +5537,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s">
@@ -5525,7 +5555,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s">
@@ -5543,7 +5573,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s">
@@ -5561,7 +5591,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s">
@@ -5579,7 +5609,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s">
@@ -5597,7 +5627,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>602</v>
+        <v>517</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s">
@@ -5615,7 +5645,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s">
@@ -5633,7 +5663,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s">
@@ -5651,7 +5681,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>520</v>
+        <v>615</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s">
@@ -5669,7 +5699,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s">
@@ -5687,7 +5717,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s">
@@ -5705,7 +5735,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s">
@@ -5723,7 +5753,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s">
@@ -5741,7 +5771,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s">
@@ -5867,7 +5897,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>530</v>
+        <v>616</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s">
@@ -6011,7 +6041,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s">
@@ -6029,7 +6059,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s">
@@ -6173,7 +6203,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s">
@@ -6191,7 +6221,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s">
@@ -6209,7 +6239,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s">
@@ -6227,7 +6257,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s">
@@ -6245,7 +6275,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s">
@@ -6263,7 +6293,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s">
@@ -6281,7 +6311,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s">
@@ -6299,7 +6329,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s">
@@ -6317,7 +6347,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s">
@@ -6335,7 +6365,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s">
@@ -6353,7 +6383,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s">
@@ -6371,7 +6401,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s">
@@ -6875,7 +6905,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s">
@@ -6893,7 +6923,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s">
@@ -6911,7 +6941,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s">
@@ -6929,7 +6959,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s">
@@ -6947,7 +6977,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s">
@@ -6965,7 +6995,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s">
@@ -6983,7 +7013,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s">
@@ -7001,7 +7031,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s">
@@ -7019,7 +7049,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s">
@@ -7037,7 +7067,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s">
@@ -7055,7 +7085,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s">
@@ -7064,7 +7094,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s">
@@ -7073,7 +7103,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s">
@@ -7082,7 +7112,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s">
@@ -7091,7 +7121,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s">
@@ -7100,7 +7130,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s">
@@ -7108,9 +7138,6 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s">
-        <v>600</v>
-      </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s">
         <v>35</v>
@@ -7138,198 +7165,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B8700CBCA50F6A48B3B600B09E7F035B" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a5fab87c7f5a1ec1d463ec138369e20d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="860a3702-07f2-4958-bde0-2896fd856bae" xmlns:ns3="77cdddf6-21a8-44c6-90d4-2e1fdaa6540a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1743114db886595c86cf6e7002c97c2e" ns2:_="" ns3:_="">
-    <xsd:import namespace="860a3702-07f2-4958-bde0-2896fd856bae"/>
-    <xsd:import namespace="77cdddf6-21a8-44c6-90d4-2e1fdaa6540a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="860a3702-07f2-4958-bde0-2896fd856bae" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="77cdddf6-21a8-44c6-90d4-2e1fdaa6540a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innholdstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tittel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62009F2E-1B6F-47BF-A35A-1FF1FEDB0CA9}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE3A8F95-2437-4593-9A4A-2B08A8D9E5BA}"/>
 </file>